--- a/INTLINE/data/542/BOKFS/old/Credit to Households.xlsx
+++ b/INTLINE/data/542/BOKFS/old/Credit to Households.xlsx
@@ -663,7 +663,8 @@
     <col min="246" max="246" width="15.0" customWidth="true"/>
     <col min="247" max="247" width="15.0" customWidth="true"/>
     <col min="248" max="248" width="15.0" customWidth="true"/>
-    <col min="249" max="249" width="4.0" customWidth="true"/>
+    <col min="249" max="249" width="15.0" customWidth="true"/>
+    <col min="250" max="250" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1912,6 +1913,11 @@
           <t>2021 4</t>
         </is>
       </c>
+      <c r="IP1" s="2" t="inlineStr">
+        <is>
+          <t>2022 1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3000,9 +3006,12 @@
         <v>1808152.9</v>
       </c>
       <c r="IN2" s="3" t="n">
-        <v>1844893.3</v>
-      </c>
-      <c r="IO2" s="1" t="inlineStr">
+        <v>1843010.3</v>
+      </c>
+      <c r="IO2" s="3" t="n">
+        <v>1862065.3</v>
+      </c>
+      <c r="IP2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
